--- a/resources/btc-obv.xlsx
+++ b/resources/btc-obv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCBEE0-D8EE-42DD-B485-A3E7A6A01C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAF29AB-DD63-486A-B42B-75C43E21E795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17370" yWindow="915" windowWidth="17580" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28590" yWindow="2850" windowWidth="16410" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,7 +370,7 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +437,7 @@
         <v>15.199356999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">IF(B3&lt;B2,C3,0)</f>
+        <f t="shared" ref="E3:E5" si="1">IF(B3&lt;B2,C3,0)</f>
         <v>0</v>
       </c>
       <c r="F3">
